--- a/library/Library_hbrown_01.06.20.xlsx
+++ b/library/Library_hbrown_01.06.20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4594CF7-85AC-ED41-8EA4-05B2D6464D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF3A84-B40B-624D-9459-228F3BDEECE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{4E46FAC1-EF89-5249-852C-DA526C530458}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -618,7 +612,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A27"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,6 +620,7 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">

--- a/library/Library_hbrown_01.06.20.xlsx
+++ b/library/Library_hbrown_01.06.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF3A84-B40B-624D-9459-228F3BDEECE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65CA56-722B-2C41-9605-E443A1A343FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{4E46FAC1-EF89-5249-852C-DA526C530458}"/>
+    <workbookView xWindow="15860" yWindow="4320" windowWidth="20460" windowHeight="16440" xr2:uid="{4E46FAC1-EF89-5249-852C-DA526C530458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -620,7 +620,7 @@
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
